--- a/templates/dataplant/plant_source.xlsx
+++ b/templates/dataplant/plant_source.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/SWATE_templates/templates/dataplant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/Brilator/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C39C2A4-8476-AB4C-B16C-ACCCBBD5BDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A1C515-0EDE-B346-9BA7-BA524FCE6F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B6C831B5-1971-5D49-B727-8B171A92DF3B}"/>
+    <workbookView xWindow="-17120" yWindow="-21100" windowWidth="27100" windowHeight="21100" activeTab="1" xr2:uid="{B6C831B5-1971-5D49-B727-8B171A92DF3B}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_source" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Source Name</t>
   </si>
@@ -42,87 +42,6 @@
     <t>Sample Name</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Organisation</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>#ER list</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>ER Term Accession Number</t>
-  </si>
-  <si>
-    <t>ER Term Source REF</t>
-  </si>
-  <si>
-    <t>#TAGS list</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Tags Term Accession Number</t>
-  </si>
-  <si>
-    <t>Tags Term Source REF</t>
-  </si>
-  <si>
-    <t>#AUTHORS list</t>
-  </si>
-  <si>
-    <t>Authors Last Name</t>
-  </si>
-  <si>
-    <t>Authors First Name</t>
-  </si>
-  <si>
-    <t>Authors Mid Initials</t>
-  </si>
-  <si>
-    <t>Authors Email</t>
-  </si>
-  <si>
-    <t>Authors Phone</t>
-  </si>
-  <si>
-    <t>Authors Fax</t>
-  </si>
-  <si>
-    <t>Authors Address</t>
-  </si>
-  <si>
-    <t>Authors Affiliation</t>
-  </si>
-  <si>
-    <t>Authors ORCID</t>
-  </si>
-  <si>
-    <t>Authors Role</t>
-  </si>
-  <si>
-    <t>Authors Role Term Accession Number</t>
-  </si>
-  <si>
-    <t>Authors Role Term Source REF</t>
-  </si>
-  <si>
     <t>02f15f9b-0a74-45b4-984c-47a1299b21c3</t>
   </si>
   <si>
@@ -181,6 +100,21 @@
   </si>
   <si>
     <t>Dominik</t>
+  </si>
+  <si>
+    <t>CEPLAS</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-9021-3197</t>
+  </si>
+  <si>
+    <t>plants</t>
+  </si>
+  <si>
+    <t>plant material</t>
+  </si>
+  <si>
+    <t>plant samples</t>
   </si>
 </sst>
 </file>
@@ -196,26 +130,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="12"/>
-      <color rgb="FFF5F5F5"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF217346"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -236,43 +164,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFEFEFE"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFEFEFE"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFEFEFE"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFEFEFE"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFEFEFE"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -315,41 +212,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -756,7 +646,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,79 +672,79 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="N1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>33</v>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -866,196 +756,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033823D9-457D-E64C-9751-88DF03A1D46B}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA9F281-B02B-CC4F-8A09-E5DF2AE533E2}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection sqref="A1:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="8"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A24" r:id="rId1" xr:uid="{83CA1374-0188-5441-BA66-70FE2B4EF075}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/templates/dataplant/plant_source.xlsx
+++ b/templates/dataplant/plant_source.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26202"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/Brilator/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A1C515-0EDE-B346-9BA7-BA524FCE6F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{34A1C515-0EDE-B346-9BA7-BA524FCE6F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43261F15-A868-44D9-A6D4-1271ACDE7DA1}"/>
   <bookViews>
-    <workbookView xWindow="-17120" yWindow="-21100" windowWidth="27100" windowHeight="21100" activeTab="1" xr2:uid="{B6C831B5-1971-5D49-B727-8B171A92DF3B}"/>
+    <workbookView xWindow="-17120" yWindow="-21100" windowWidth="27100" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{B6C831B5-1971-5D49-B727-8B171A92DF3B}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_source" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="SwateTemplateMetadata" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,104 +24,301 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5B2BA2CD-F085-4AAE-B30C-D32B72D61994}</author>
+    <author>tc={F7EC3CD2-ADC8-40A4-B786-7350760C48E5}</author>
+    <author>tc={481526B1-7E52-4315-9887-E3294902AAE4}</author>
+    <author>tc={2510C35C-4733-4197-89C4-586DA5F1D8E2}</author>
+    <author>tc={1ACD6D9A-6B47-4795-B498-8458E9DA41C8}</author>
+    <author>tc={6E1C1409-0EE7-488D-BD89-A09D090ADAC0}</author>
+    <author>tc={C5FFE8B3-DC03-4FDC-AB1A-74CB0BA5DA6D}</author>
+    <author>tc={D5B5AFB7-6BF7-4F9D-8760-2AEE3F6A0ADB}</author>
+    <author>tc={F30FD0AC-B377-46A9-A08B-4463234DA46A}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{5B2BA2CD-F085-4AAE-B30C-D32B72D61994}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The unique identifier of this template. It will be auto generated.
+Reply:
+    id=a1c3bff6-b7da-4602-adf0-da8cacf0bd07</t>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{F7EC3CD2-ADC8-40A4-B786-7350760C48E5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate template.</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{481526B1-7E52-4315-9887-E3294902AAE4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The current version of this template in SemVer notation.</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{2510C35C-4733-4197-89C4-586DA5F1D8E2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The description of this template. Use few sentences for succinctness.</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{1ACD6D9A-6B47-4795-B498-8458E9DA41C8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{6E1C1409-0EE7-488D-BD89-A09D090ADAC0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate annotation table in the workbook of the template's excel file.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{C5FFE8B3-DC03-4FDC-AB1A-74CB0BA5DA6D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{D5B5AFB7-6BF7-4F9D-8760-2AEE3F6A0ADB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all tags associated with this template. Tags are realized as Terms.</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{F30FD0AC-B377-46A9-A08B-4463234DA46A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The author(s) of this template.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>Source Name</t>
   </si>
   <si>
+    <t>Protocol Type</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Characteristic [organism]</t>
+  </si>
+  <si>
+    <t>Term Source REF (OBI:0100026)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (OBI:0100026)</t>
+  </si>
+  <si>
+    <t>Characteristic [organism part]</t>
+  </si>
+  <si>
+    <t>Term Source REF (EFO:0000635)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (EFO:0000635)</t>
+  </si>
+  <si>
+    <t>Characteristic [plant age]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000033)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000033)</t>
+  </si>
+  <si>
+    <t>Characteristic [genotype]</t>
+  </si>
+  <si>
+    <t>Term Source REF (EFO:0000513)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (EFO:0000513)</t>
+  </si>
+  <si>
     <t>Sample Name</t>
   </si>
   <si>
-    <t>02f15f9b-0a74-45b4-984c-47a1299b21c3</t>
+    <t>sample collection protocol</t>
+  </si>
+  <si>
+    <t>DPBO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000169</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>a1c3bff6-b7da-4602-adf0-da8cacf0bd07</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Plant Source Material</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Material to start a plant study.</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>DataPLANT</t>
+  </si>
+  <si>
+    <t>Table</t>
   </si>
   <si>
     <t>annotationTableWonderfulBird86</t>
   </si>
   <si>
-    <t>DataPLANT</t>
-  </si>
-  <si>
-    <t>Characteristic [organism]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Term Source REF (OBI:0100026)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (OBI:0100026)</t>
-  </si>
-  <si>
-    <t>Characteristic [organism part]</t>
-  </si>
-  <si>
-    <t>Term Source REF (EFO:0000635)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (EFO:0000635)</t>
-  </si>
-  <si>
-    <t>Characteristic [plant age]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:0000033)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:0000033)</t>
-  </si>
-  <si>
-    <t>Characteristic [genotype]</t>
-  </si>
-  <si>
-    <t>Term Source REF (EFO:0000513)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (EFO:0000513)</t>
-  </si>
-  <si>
-    <t>Plant Source Material</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
+    <t>#ER list</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER Term Accession Number</t>
+  </si>
+  <si>
+    <t>ER Term Source REF</t>
+  </si>
+  <si>
+    <t>#TAGS list</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>plants</t>
+  </si>
+  <si>
+    <t>plant material</t>
+  </si>
+  <si>
+    <t>plant samples</t>
+  </si>
+  <si>
+    <t>Tags Term Accession Number</t>
+  </si>
+  <si>
+    <t>Tags Term Source REF</t>
+  </si>
+  <si>
+    <t>#AUTHORS list</t>
+  </si>
+  <si>
+    <t>Authors Last Name</t>
   </si>
   <si>
     <t>Brilhaus</t>
   </si>
   <si>
+    <t>Authors First Name</t>
+  </si>
+  <si>
     <t>Dominik</t>
   </si>
   <si>
-    <t>CEPLAS</t>
+    <t>Authors Mid Initials</t>
+  </si>
+  <si>
+    <t>Authors Email</t>
+  </si>
+  <si>
+    <t>Authors Phone</t>
+  </si>
+  <si>
+    <t>Authors Fax</t>
+  </si>
+  <si>
+    <t>Authors Address</t>
+  </si>
+  <si>
+    <t>Authors Affiliation</t>
+  </si>
+  <si>
+    <t>CEPLAS (https://ror.org/034waa237)</t>
+  </si>
+  <si>
+    <t>Authors ORCID</t>
   </si>
   <si>
     <t>https://orcid.org/0000-0001-9021-3197</t>
   </si>
   <si>
-    <t>plants</t>
-  </si>
-  <si>
-    <t>plant material</t>
-  </si>
-  <si>
-    <t>plant samples</t>
+    <t>Authors Role</t>
+  </si>
+  <si>
+    <t>Authors Role Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Role Term Source REF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,15 +327,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFF5F5F5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,8 +366,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCDB3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -211,38 +426,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -292,11 +557,20 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Dominik Brilhaus" id="{D043762E-E4B9-496F-A6E1-1F3CA102BE44}" userId="S::brilhaus@nfdi4plants.org::b22096c1-5902-44b1-ad15-49b931137396" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43DFA9BB-497F-D644-A66C-D5A2187D2B94}" name="annotationTableWonderfulBird86" displayName="annotationTableWonderfulBird86" ref="A1:N2" totalsRowShown="0">
-  <autoFilter ref="A1:N2" xr:uid="{43DFA9BB-497F-D644-A66C-D5A2187D2B94}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43DFA9BB-497F-D644-A66C-D5A2187D2B94}" name="annotationTableWonderfulBird86" displayName="annotationTableWonderfulBird86" ref="A1:Q2" totalsRowShown="0">
+  <autoFilter ref="A1:Q2" xr:uid="{43DFA9BB-497F-D644-A66C-D5A2187D2B94}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{F0764404-7B02-1C4B-9E00-3B6B2EEFF140}" name="Source Name"/>
+    <tableColumn id="15" xr3:uid="{641407EC-67B4-4C94-8827-38FB4E428953}" name="Protocol Type" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{F62C7E6B-DB2E-44F1-ABB2-68FBB61770D4}" name="Term Source REF (DPBO:1000161)" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{8B0C32F3-46A6-47B1-8310-0F061F34465E}" name="Term Accession Number (DPBO:1000161)" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{A839B89E-24B6-9E4E-91C0-D810900C4DCC}" name="Characteristic [organism]" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{4F2B83E4-6311-954A-A1E2-73092E139219}" name="Term Source REF (OBI:0100026)" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{84DE3E3C-5926-CE49-AC44-AC45F7CA3AE4}" name="Term Accession Number (OBI:0100026)" dataDxfId="9"/>
@@ -610,6 +884,41 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2023-02-07T09:39:02.32" personId="{D043762E-E4B9-496F-A6E1-1F3CA102BE44}" id="{5B2BA2CD-F085-4AAE-B30C-D32B72D61994}">
+    <text>The unique identifier of this template. It will be auto generated.</text>
+  </threadedComment>
+  <threadedComment ref="A1" dT="2023-02-07T09:39:02.34" personId="{D043762E-E4B9-496F-A6E1-1F3CA102BE44}" id="{9F0C8001-91E2-427D-A533-AEFC9D36F27C}" parentId="{5B2BA2CD-F085-4AAE-B30C-D32B72D61994}">
+    <text>id=a1c3bff6-b7da-4602-adf0-da8cacf0bd07</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2023-02-07T09:39:02.34" personId="{D043762E-E4B9-496F-A6E1-1F3CA102BE44}" id="{F7EC3CD2-ADC8-40A4-B786-7350760C48E5}">
+    <text>The name of the Swate template.</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2023-02-07T09:39:02.34" personId="{D043762E-E4B9-496F-A6E1-1F3CA102BE44}" id="{481526B1-7E52-4315-9887-E3294902AAE4}">
+    <text>The current version of this template in SemVer notation.</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2023-02-07T09:39:02.34" personId="{D043762E-E4B9-496F-A6E1-1F3CA102BE44}" id="{2510C35C-4733-4197-89C4-586DA5F1D8E2}">
+    <text>The description of this template. Use few sentences for succinctness.</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2023-02-07T09:39:02.34" personId="{D043762E-E4B9-496F-A6E1-1F3CA102BE44}" id="{1ACD6D9A-6B47-4795-B498-8458E9DA41C8}">
+    <text>The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2023-02-07T09:39:02.34" personId="{D043762E-E4B9-496F-A6E1-1F3CA102BE44}" id="{6E1C1409-0EE7-488D-BD89-A09D090ADAC0}">
+    <text>The name of the Swate annotation table in the workbook of the template's excel file.</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2023-02-07T09:39:02.34" personId="{D043762E-E4B9-496F-A6E1-1F3CA102BE44}" id="{C5FFE8B3-DC03-4FDC-AB1A-74CB0BA5DA6D}">
+    <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2023-02-07T09:39:02.34" personId="{D043762E-E4B9-496F-A6E1-1F3CA102BE44}" id="{D5B5AFB7-6BF7-4F9D-8760-2AEE3F6A0ADB}">
+    <text>A list of all tags associated with this template. Tags are realized as Terms.</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2023-02-07T09:39:02.34" personId="{D043762E-E4B9-496F-A6E1-1F3CA102BE44}" id="{F30FD0AC-B377-46A9-A08B-4463234DA46A}">
+    <text>The author(s) of this template.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
@@ -628,6 +937,11 @@
   <we:properties/>
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+  </we:extLst>
 </we:webextension>
 </file>
 
@@ -638,113 +952,138 @@
   <we:properties/>
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+  </we:extLst>
 </we:webextension>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A9BB29-DBAD-F04E-AC0F-AE30E5B63E85}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="38.125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="37" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="38.5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.875" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="37" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="15.75">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>6</v>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -756,126 +1095,223 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA9F281-B02B-CC4F-8A09-E5DF2AE533E2}">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7F0157-518A-4BBB-A40F-3A4F9D60F0EC}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C27"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.5">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="E14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5">
+      <c r="A24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A24" r:id="rId1" xr:uid="{83CA1374-0188-5441-BA66-70FE2B4EF075}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/dataplant/plant_source.xlsx
+++ b/templates/dataplant/plant_source.xlsx
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/templates/dataplant/plant_source.xlsx
+++ b/templates/dataplant/plant_source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/Brilator/Swate-templates/templates/dataplant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nfdi4plant-my.sharepoint.com/personal/brilhaus_nfdi4plants_org/Documents/Swate-templates_git/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{34A1C515-0EDE-B346-9BA7-BA524FCE6F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43261F15-A868-44D9-A6D4-1271ACDE7DA1}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:1_{34A1C515-0EDE-B346-9BA7-BA524FCE6F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3200F7F7-3EFA-0F4F-96E1-A5B3E378E70E}"/>
   <bookViews>
-    <workbookView xWindow="-17120" yWindow="-21100" windowWidth="27100" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{B6C831B5-1971-5D49-B727-8B171A92DF3B}"/>
+    <workbookView xWindow="17320" yWindow="-21100" windowWidth="27100" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{B6C831B5-1971-5D49-B727-8B171A92DF3B}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_source" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,76 +49,157 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{5B2BA2CD-F085-4AAE-B30C-D32B72D61994}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=a1c3bff6-b7da-4602-adf0-da8cacf0bd07</t>
+        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{F7EC3CD2-ADC8-40A4-B786-7350760C48E5}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{481526B1-7E52-4315-9887-E3294902AAE4}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{2510C35C-4733-4197-89C4-586DA5F1D8E2}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{1ACD6D9A-6B47-4795-B498-8458E9DA41C8}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{6E1C1409-0EE7-488D-BD89-A09D090ADAC0}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{C5FFE8B3-DC03-4FDC-AB1A-74CB0BA5DA6D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{D5B5AFB7-6BF7-4F9D-8760-2AEE3F6A0ADB}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{F30FD0AC-B377-46A9-A08B-4463234DA46A}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -129,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>Source Name</t>
   </si>
@@ -209,9 +287,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -248,9 +323,6 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>plants</t>
-  </si>
-  <si>
     <t>plant material</t>
   </si>
   <si>
@@ -312,13 +384,25 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -968,27 +1052,27 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="38.125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="37" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="38.5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.83203125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="37" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1099,19 +1183,19 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1119,7 +1203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -1127,186 +1211,190 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="D12" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="B23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B24" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="B27" s="10"/>
     </row>
